--- a/ciliwung data.xlsx
+++ b/ciliwung data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Pelajaran Master\Semester 2\Dissertation\Test River\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0A0345-AF27-4551-88E8-E935028EB80B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D02652D0-FA15-45CF-91F4-10C9801C6C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -360,16 +354,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -388,12 +383,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>11.403*(C2+0.2)^1.715</f>
-        <v>29.77346483292817</v>
+        <f t="shared" ref="B2:B9" si="0">11.403*(C2+0.2)^1.715</f>
+        <v>34.904444572007037</v>
       </c>
       <c r="C2">
-        <f>1550/1000</f>
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -402,12 +396,11 @@
         <v>1.0208330000000001</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B51" si="0">11.403*(C3+0.2)^1.715</f>
-        <v>29.482281266504994</v>
+        <f t="shared" si="0"/>
+        <v>33.3601104258098</v>
       </c>
       <c r="C3">
-        <f>1540/1000</f>
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -417,11 +410,10 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>28.615902910397427</v>
+        <v>32.145689332326164</v>
       </c>
       <c r="C4">
-        <f>1510/1000</f>
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -431,10 +423,10 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>29.192291779444627</v>
+        <v>10.442755441412539</v>
       </c>
       <c r="C5">
-        <v>1.53</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -444,10 +436,10 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>36.477805403137715</v>
+        <v>30.359406423547881</v>
       </c>
       <c r="C6">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -457,10 +449,10 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>44.772822719455768</v>
+        <v>30.950101132135604</v>
       </c>
       <c r="C7">
-        <v>2.02</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -470,10 +462,10 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>45.466809063751398</v>
+        <v>31.24722614811364</v>
       </c>
       <c r="C8">
-        <v>2.04</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -483,23 +475,24 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>46.516118627833954</v>
+        <v>31.545533761806958</v>
       </c>
       <c r="C9">
-        <v>2.0699999999999998</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <f t="shared" si="1"/>
+        <f>A9+0.020833</f>
         <v>1.1666640000000008</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>48.287088308371203</v>
+        <f>11.403*(C10+0.2)^1.715</f>
+        <v>29.77346483292817</v>
       </c>
       <c r="C10">
-        <v>2.12</v>
+        <f>1550/1000</f>
+        <v>1.55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -508,11 +501,12 @@
         <v>1.1874970000000009</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>56.403875892579457</v>
+        <f>11.403*(C11+0.2)^1.715</f>
+        <v>29.482281266504994</v>
       </c>
       <c r="C11">
-        <v>2.34</v>
+        <f>1540/1000</f>
+        <v>1.54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -521,11 +515,12 @@
         <v>1.208330000000001</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>62.633687315169389</v>
+        <f>11.403*(C12+0.2)^1.715</f>
+        <v>28.615902910397427</v>
       </c>
       <c r="C12">
-        <v>2.5</v>
+        <f>1510/1000</f>
+        <v>1.51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -534,11 +529,11 @@
         <v>1.2291630000000011</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>78.065912103064946</v>
+        <f>11.403*(C13+0.2)^1.715</f>
+        <v>29.192291779444627</v>
       </c>
       <c r="C13">
-        <v>2.87</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -547,11 +542,11 @@
         <v>1.2499960000000012</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>78.940144409066676</v>
+        <f>11.403*(C14+0.2)^1.715</f>
+        <v>36.477805403137715</v>
       </c>
       <c r="C14">
-        <v>2.89</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -560,11 +555,11 @@
         <v>1.2708290000000013</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>89.74514938175389</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3.13</v>
+        <f>11.403*(C15+0.2)^1.715</f>
+        <v>44.772822719455768</v>
+      </c>
+      <c r="C15">
+        <v>2.02</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -573,11 +568,11 @@
         <v>1.2916620000000014</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>125.01529944955577</v>
+        <f>11.403*(C16+0.2)^1.715</f>
+        <v>45.466809063751398</v>
       </c>
       <c r="C16">
-        <v>3.84</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -586,11 +581,11 @@
         <v>1.3124950000000015</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>139.12895579864008</v>
+        <f>11.403*(C17+0.2)^1.715</f>
+        <v>46.516118627833954</v>
       </c>
       <c r="C17">
-        <v>4.0999999999999996</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -599,11 +594,11 @@
         <v>1.3333280000000016</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>149.83787289361723</v>
+        <f>11.403*(C18+0.2)^1.715</f>
+        <v>48.287088308371203</v>
       </c>
       <c r="C18">
-        <v>4.29</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -612,11 +607,11 @@
         <v>1.3541610000000017</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>131.99347375189518</v>
+        <f>11.403*(C19+0.2)^1.715</f>
+        <v>56.403875892579457</v>
       </c>
       <c r="C19">
-        <v>3.97</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -625,11 +620,11 @@
         <v>1.3749940000000018</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>142.47493037649883</v>
+        <f>11.403*(C20+0.2)^1.715</f>
+        <v>62.633687315169389</v>
       </c>
       <c r="C20">
-        <v>4.16</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -638,11 +633,11 @@
         <v>1.3958270000000019</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>136.36601185511176</v>
+        <f>11.403*(C21+0.2)^1.715</f>
+        <v>78.065912103064946</v>
       </c>
       <c r="C21">
-        <v>4.05</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -651,11 +646,11 @@
         <v>1.416660000000002</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>136.36601185511176</v>
+        <f>11.403*(C22+0.2)^1.715</f>
+        <v>78.940144409066676</v>
       </c>
       <c r="C22">
-        <v>4.05</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -664,11 +659,11 @@
         <v>1.4374930000000021</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>128.21635860745323</v>
-      </c>
-      <c r="C23">
-        <v>3.9</v>
+        <f>11.403*(C23+0.2)^1.715</f>
+        <v>89.74514938175389</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3.13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -677,11 +672,11 @@
         <v>1.4583260000000022</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>117.16089768942179</v>
+        <f>11.403*(C24+0.2)^1.715</f>
+        <v>125.01529944955577</v>
       </c>
       <c r="C24">
-        <v>3.69</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -690,11 +685,11 @@
         <v>1.4791590000000023</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>106.02820876355767</v>
+        <f>11.403*(C25+0.2)^1.715</f>
+        <v>139.12895579864008</v>
       </c>
       <c r="C25">
-        <v>3.47</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -703,11 +698,11 @@
         <v>1.4999920000000024</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>95.837314079707468</v>
+        <f>11.403*(C26+0.2)^1.715</f>
+        <v>149.83787289361723</v>
       </c>
       <c r="C26">
-        <v>3.26</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -716,11 +711,11 @@
         <v>1.5208250000000025</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>88.822733354395282</v>
+        <f>11.403*(C27+0.2)^1.715</f>
+        <v>131.99347375189518</v>
       </c>
       <c r="C27">
-        <v>3.11</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -729,11 +724,11 @@
         <v>1.5416580000000026</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>78.502520888757616</v>
+        <f>11.403*(C28+0.2)^1.715</f>
+        <v>142.47493037649883</v>
       </c>
       <c r="C28">
-        <v>2.88</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -742,11 +737,11 @@
         <v>1.5624910000000027</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>70.799744548224254</v>
+        <f>11.403*(C29+0.2)^1.715</f>
+        <v>136.36601185511176</v>
       </c>
       <c r="C29">
-        <v>2.7</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -755,11 +750,11 @@
         <v>1.5833240000000028</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>63.831942962422993</v>
+        <f>11.403*(C30+0.2)^1.715</f>
+        <v>136.36601185511176</v>
       </c>
       <c r="C30">
-        <v>2.5299999999999998</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -768,11 +763,11 @@
         <v>1.6041570000000029</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>59.874683810505843</v>
+        <f>11.403*(C31+0.2)^1.715</f>
+        <v>128.21635860745323</v>
       </c>
       <c r="C31">
-        <v>2.4300000000000002</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -781,11 +776,11 @@
         <v>1.624990000000003</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" si="0"/>
-        <v>56.023574920640158</v>
+        <f>11.403*(C32+0.2)^1.715</f>
+        <v>117.16089768942179</v>
       </c>
       <c r="C32">
-        <v>2.33</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -794,11 +789,11 @@
         <v>1.6458230000000031</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>52.649309105092513</v>
+        <f>11.403*(C33+0.2)^1.715</f>
+        <v>106.02820876355767</v>
       </c>
       <c r="C33">
-        <v>2.2400000000000002</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -807,11 +802,11 @@
         <v>1.6666560000000032</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>50.085560438692454</v>
+        <f>11.403*(C34+0.2)^1.715</f>
+        <v>95.837314079707468</v>
       </c>
       <c r="C34">
-        <v>2.17</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -820,11 +815,11 @@
         <v>1.6874890000000033</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>48.644587936927437</v>
+        <f>11.403*(C35+0.2)^1.715</f>
+        <v>88.822733354395282</v>
       </c>
       <c r="C35">
-        <v>2.13</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -833,11 +828,11 @@
         <v>1.7083220000000034</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>46.868104213766671</v>
+        <f>11.403*(C36+0.2)^1.715</f>
+        <v>78.502520888757616</v>
       </c>
       <c r="C36">
-        <v>2.08</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -846,11 +841,11 @@
         <v>1.7291550000000036</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" si="0"/>
-        <v>45.466809063751398</v>
+        <f>11.403*(C37+0.2)^1.715</f>
+        <v>70.799744548224254</v>
       </c>
       <c r="C37">
-        <v>2.04</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -859,11 +854,11 @@
         <v>1.7499880000000037</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="0"/>
-        <v>44.083292319525967</v>
+        <f>11.403*(C38+0.2)^1.715</f>
+        <v>63.831942962422993</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -872,11 +867,11 @@
         <v>1.7708210000000038</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>42.717645519278214</v>
+        <f>11.403*(C39+0.2)^1.715</f>
+        <v>59.874683810505843</v>
       </c>
       <c r="C39">
-        <v>1.96</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -885,11 +880,11 @@
         <v>1.7916540000000039</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" si="0"/>
-        <v>41.705193853787243</v>
+        <f>11.403*(C40+0.2)^1.715</f>
+        <v>56.023574920640158</v>
       </c>
       <c r="C40">
-        <v>1.93</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -898,11 +893,11 @@
         <v>1.812487000000004</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>40.70288705260009</v>
+        <f>11.403*(C41+0.2)^1.715</f>
+        <v>52.649309105092513</v>
       </c>
       <c r="C41">
-        <v>1.9</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -911,11 +906,11 @@
         <v>1.8333200000000041</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>40.040338817766795</v>
+        <f>11.403*(C42+0.2)^1.715</f>
+        <v>50.085560438692454</v>
       </c>
       <c r="C42">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -924,11 +919,11 @@
         <v>1.8541530000000042</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>39.382330024779627</v>
+        <f>11.403*(C43+0.2)^1.715</f>
+        <v>48.644587936927437</v>
       </c>
       <c r="C43">
-        <v>1.86</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -937,11 +932,11 @@
         <v>1.8749860000000043</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>42.379036929868768</v>
+        <f>11.403*(C44+0.2)^1.715</f>
+        <v>46.868104213766671</v>
       </c>
       <c r="C44">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -950,11 +945,11 @@
         <v>1.8958190000000044</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" si="0"/>
-        <v>39.710766212342079</v>
+        <f>11.403*(C45+0.2)^1.715</f>
+        <v>45.466809063751398</v>
       </c>
       <c r="C45">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -963,11 +958,11 @@
         <v>1.9166520000000045</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" si="0"/>
-        <v>38.403855713636979</v>
+        <f>11.403*(C46+0.2)^1.715</f>
+        <v>44.083292319525967</v>
       </c>
       <c r="C46">
-        <v>1.83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -976,11 +971,11 @@
         <v>1.9374850000000046</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" si="0"/>
-        <v>37.435666261064455</v>
+        <f>11.403*(C47+0.2)^1.715</f>
+        <v>42.717645519278214</v>
       </c>
       <c r="C47">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -989,11 +984,11 @@
         <v>1.9583180000000047</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" si="0"/>
-        <v>36.477805403137715</v>
+        <f>11.403*(C48+0.2)^1.715</f>
+        <v>41.705193853787243</v>
       </c>
       <c r="C48">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1002,11 +997,11 @@
         <v>1.9791510000000048</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" si="0"/>
-        <v>36.160821375122772</v>
+        <f>11.403*(C49+0.2)^1.715</f>
+        <v>40.70288705260009</v>
       </c>
       <c r="C49">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1015,11 +1010,11 @@
         <v>1.9999840000000049</v>
       </c>
       <c r="B50" s="1">
-        <f t="shared" si="0"/>
-        <v>35.216801486311034</v>
+        <f>11.403*(C50+0.2)^1.715</f>
+        <v>40.040338817766795</v>
       </c>
       <c r="C50">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1028,11 +1023,660 @@
         <v>2.020817000000005</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" si="0"/>
+        <f>11.403*(C51+0.2)^1.715</f>
+        <v>39.382330024779627</v>
+      </c>
+      <c r="C51">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1">
+        <f>11.403*(C52+0.2)^1.715</f>
+        <v>42.379036929868768</v>
+      </c>
+      <c r="C52">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <f>A52+0.020833</f>
+        <v>2.0208330000000001</v>
+      </c>
+      <c r="B53" s="1">
+        <f>11.403*(C53+0.2)^1.715</f>
+        <v>39.710766212342079</v>
+      </c>
+      <c r="C53">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <f>A53+0.020833</f>
+        <v>2.0416660000000002</v>
+      </c>
+      <c r="B54" s="1">
+        <f>11.403*(C54+0.2)^1.715</f>
+        <v>38.403855713636979</v>
+      </c>
+      <c r="C54">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <f>A54+0.020833</f>
+        <v>2.0624990000000003</v>
+      </c>
+      <c r="B55" s="1">
+        <f>11.403*(C55+0.2)^1.715</f>
+        <v>37.435666261064455</v>
+      </c>
+      <c r="C55">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <f t="shared" ref="A56:A101" si="2">A55+0.020833</f>
+        <v>2.0833320000000004</v>
+      </c>
+      <c r="B56" s="1">
+        <f>11.403*(C56+0.2)^1.715</f>
+        <v>36.477805403137715</v>
+      </c>
+      <c r="C56">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <f>A56+0.020833</f>
+        <v>2.1041650000000005</v>
+      </c>
+      <c r="B57" s="1">
+        <f>11.403*(C57+0.2)^1.715</f>
+        <v>36.160821375122772</v>
+      </c>
+      <c r="C57">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1249980000000006</v>
+      </c>
+      <c r="B58" s="1">
+        <f>11.403*(C58+0.2)^1.715</f>
+        <v>35.216801486311034</v>
+      </c>
+      <c r="C58">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1458310000000007</v>
+      </c>
+      <c r="B59" s="1">
+        <f>11.403*(C59+0.2)^1.715</f>
         <v>34.904444572007037</v>
       </c>
-      <c r="C51">
+      <c r="C59">
         <v>1.72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <f>A59+0.020833</f>
+        <v>2.1666640000000008</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" ref="B60:B101" si="3">11.403*(C60+0.2)^1.715</f>
+        <v>34.283215605598052</v>
+      </c>
+      <c r="C60">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1874970000000009</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="3"/>
+        <v>33.974347023617185</v>
+      </c>
+      <c r="C61">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <f t="shared" si="2"/>
+        <v>2.208330000000001</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="3"/>
+        <v>33.666644708797705</v>
+      </c>
+      <c r="C62">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <f t="shared" si="2"/>
+        <v>2.2291630000000011</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="3"/>
+        <v>33.3601104258098</v>
+      </c>
+      <c r="C63">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <f t="shared" si="2"/>
+        <v>2.2499960000000012</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="3"/>
+        <v>33.054745951426895</v>
+      </c>
+      <c r="C64">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <f t="shared" si="2"/>
+        <v>2.2708290000000013</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="3"/>
+        <v>32.447533596979106</v>
+      </c>
+      <c r="C65">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <f t="shared" si="2"/>
+        <v>2.2916620000000014</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="3"/>
+        <v>32.447533596979106</v>
+      </c>
+      <c r="C66">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3124950000000015</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="3"/>
+        <v>32.145689332326164</v>
+      </c>
+      <c r="C67">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3333280000000016</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="3"/>
+        <v>31.845022107412358</v>
+      </c>
+      <c r="C68">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3541610000000017</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="3"/>
+        <v>31.545533761806958</v>
+      </c>
+      <c r="C69">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3749940000000018</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="3"/>
+        <v>31.24722614811364</v>
+      </c>
+      <c r="C70">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3958270000000019</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="3"/>
+        <v>30.950101132135604</v>
+      </c>
+      <c r="C71">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <f t="shared" si="2"/>
+        <v>2.416660000000002</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="3"/>
+        <v>30.654160593043738</v>
+      </c>
+      <c r="C72">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4374930000000021</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="3"/>
+        <v>30.359406423547881</v>
+      </c>
+      <c r="C73">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4583260000000022</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="3"/>
+        <v>30.359406423547881</v>
+      </c>
+      <c r="C74">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4791590000000023</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="3"/>
+        <v>30.065840530071263</v>
+      </c>
+      <c r="C75">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4999920000000024</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="3"/>
+        <v>29.77346483292817</v>
+      </c>
+      <c r="C76">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5208250000000025</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="3"/>
+        <v>29.77346483292817</v>
+      </c>
+      <c r="C77">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5416580000000026</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="3"/>
+        <v>29.77346483292817</v>
+      </c>
+      <c r="C78">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5624910000000027</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="3"/>
+        <v>29.482281266504994</v>
+      </c>
+      <c r="C79">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5833240000000028</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="3"/>
+        <v>29.192291779444627</v>
+      </c>
+      <c r="C80">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6041570000000029</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" si="3"/>
+        <v>28.903498334834364</v>
+      </c>
+      <c r="C81">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <f t="shared" si="2"/>
+        <v>2.624990000000003</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="3"/>
+        <v>28.615902910397427</v>
+      </c>
+      <c r="C82">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6458230000000031</v>
+      </c>
+      <c r="B83" s="1">
+        <f t="shared" si="3"/>
+        <v>28.615902910397427</v>
+      </c>
+      <c r="C83">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6666560000000032</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" si="3"/>
+        <v>28.615902910397427</v>
+      </c>
+      <c r="C84">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6874890000000033</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" si="3"/>
+        <v>28.615902910397427</v>
+      </c>
+      <c r="C85">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7083220000000034</v>
+      </c>
+      <c r="B86" s="1">
+        <f t="shared" si="3"/>
+        <v>28.329507498688159</v>
+      </c>
+      <c r="C86">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7291550000000036</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" si="3"/>
+        <v>28.044314107290894</v>
+      </c>
+      <c r="C87">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7499880000000037</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" si="3"/>
+        <v>27.760324759022804</v>
+      </c>
+      <c r="C88">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7708210000000038</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" si="3"/>
+        <v>27.760324759022804</v>
+      </c>
+      <c r="C89">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7916540000000039</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" si="3"/>
+        <v>27.760324759022804</v>
+      </c>
+      <c r="C90">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <f t="shared" si="2"/>
+        <v>2.812487000000004</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" si="3"/>
+        <v>27.760324759022804</v>
+      </c>
+      <c r="C91">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8333200000000041</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" si="3"/>
+        <v>27.477541492140627</v>
+      </c>
+      <c r="C92">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8541530000000042</v>
+      </c>
+      <c r="B93" s="1">
+        <f t="shared" si="3"/>
+        <v>27.195966360551484</v>
+      </c>
+      <c r="C93">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8749860000000043</v>
+      </c>
+      <c r="B94" s="1">
+        <f t="shared" si="3"/>
+        <v>27.195966360551484</v>
+      </c>
+      <c r="C94">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8958190000000044</v>
+      </c>
+      <c r="B95" s="1">
+        <f t="shared" si="3"/>
+        <v>27.195966360551484</v>
+      </c>
+      <c r="C95">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9166520000000045</v>
+      </c>
+      <c r="B96" s="1">
+        <f t="shared" si="3"/>
+        <v>26.91560143402782</v>
+      </c>
+      <c r="C96">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9374850000000046</v>
+      </c>
+      <c r="B97" s="1">
+        <f t="shared" si="3"/>
+        <v>26.91560143402782</v>
+      </c>
+      <c r="C97">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9583180000000047</v>
+      </c>
+      <c r="B98" s="1">
+        <f t="shared" si="3"/>
+        <v>26.91560143402782</v>
+      </c>
+      <c r="C98">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9791510000000048</v>
+      </c>
+      <c r="B99" s="1">
+        <f t="shared" si="3"/>
+        <v>27.195966360551484</v>
+      </c>
+      <c r="C99">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9999840000000049</v>
+      </c>
+      <c r="B100" s="1">
+        <f t="shared" si="3"/>
+        <v>27.477541492140627</v>
+      </c>
+      <c r="C100">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <f t="shared" si="2"/>
+        <v>3.020817000000005</v>
+      </c>
+      <c r="B101" s="1">
+        <f t="shared" si="3"/>
+        <v>27.760324759022804</v>
+      </c>
+      <c r="C101">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>
